--- a/Master/Primary_Metadata.xlsx
+++ b/Master/Primary_Metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JaySabva\Desktop\G21_DS_Project\Master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7585F3BE-749F-4D4A-B87F-4BCDB79EEA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32334AE6-D49D-4387-B3A2-D35D445B95F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,7 +389,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="A2:E12"/>
+      <selection activeCell="E11" sqref="A2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
